--- a/Дневник практики.xlsx
+++ b/Дневник практики.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82D8403-F769-41B6-B11B-947F684FD4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612E814-BD8A-42D9-A81B-959F8DB1982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Инструктажи, обзор рабочего места</t>
   </si>
@@ -37,13 +37,25 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Изучение методов подбора сечения для балки по сортаменту</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Подпись</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +64,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Inter"/>
@@ -78,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -90,6 +109,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,47 +393,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>45463</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -419,43 +445,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45468</v>
+        <v>45467</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45469</v>
+        <v>45468</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45470</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45471</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45472</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -463,40 +492,40 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45474</v>
+        <v>45473</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45475</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45476</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45477</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45478</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45479</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45480</v>
+        <v>45479</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -504,40 +533,40 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45481</v>
+        <v>45480</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45482</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45483</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45484</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45485</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45486</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45487</v>
+        <v>45486</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -545,16 +574,24 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45488</v>
+        <v>45487</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45489</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>45490</v>
       </c>
     </row>

--- a/Дневник практики.xlsx
+++ b/Дневник практики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612E814-BD8A-42D9-A81B-959F8DB1982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0C9B2-18FF-43D1-9168-8428B1C37A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Инструктажи, обзор рабочего места</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Подпись</t>
+  </si>
+  <si>
+    <t>Поиск документации для расчётов</t>
+  </si>
+  <si>
+    <t>Расчёт строительной конструкции в соответствии с ГОСТ и СП</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,15 +477,24 @@
       <c r="A8" s="3">
         <v>45469</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45470</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45471</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
